--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Latent View Analytics Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Latent View Analytics Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -1,165 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Balance Sheet of Latent View Analytics(in Rs. Cr.)</t>
-  </si>
-  <si>
-    <t>Equity Share Capital</t>
-  </si>
-  <si>
-    <t>Total Share Capital</t>
-  </si>
-  <si>
-    <t>Reserves and Surplus</t>
-  </si>
-  <si>
-    <t>Total Reserves and Surplus</t>
-  </si>
-  <si>
-    <t>Total Shareholders Funds</t>
-  </si>
-  <si>
-    <t>Other Long Term Liabilities</t>
-  </si>
-  <si>
-    <t>Long Term Provisions</t>
-  </si>
-  <si>
-    <t>Total Non-Current Liabilities</t>
-  </si>
-  <si>
-    <t>Trade Payables</t>
-  </si>
-  <si>
-    <t>Other Current Liabilities</t>
-  </si>
-  <si>
-    <t>Total Current Liabilities</t>
-  </si>
-  <si>
-    <t>Total Capital And Liabilities</t>
-  </si>
-  <si>
-    <t>Tangible Assets</t>
-  </si>
-  <si>
-    <t>Intangible Assets</t>
-  </si>
-  <si>
-    <t>Fixed Assets</t>
-  </si>
-  <si>
-    <t>Non-Current Investments</t>
-  </si>
-  <si>
-    <t>Deferred Tax Assets [Net]</t>
-  </si>
-  <si>
-    <t>Long Term Loans And Advances</t>
-  </si>
-  <si>
-    <t>Other Non-Current Assets</t>
-  </si>
-  <si>
-    <t>Total Non-Current Assets</t>
-  </si>
-  <si>
-    <t>Current Investments</t>
-  </si>
-  <si>
-    <t>Trade Receivables</t>
-  </si>
-  <si>
-    <t>Cash And Cash Equivalents</t>
-  </si>
-  <si>
-    <t>Short Term Loans And Advances</t>
-  </si>
-  <si>
-    <t>OtherCurrentAssets</t>
-  </si>
-  <si>
-    <t>Total Current Assets</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Expenditure In Foreign Currency</t>
-  </si>
-  <si>
-    <t>Other Earnings</t>
-  </si>
-  <si>
-    <t>Non-Current Investments Unquoted Book Value</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -174,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -490,964 +420,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Balance Sheet of Latent View Analytics(in Rs. Cr.)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Equity Share Capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Share Capital</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reserves and Surplus</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Reserves and Surplus</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Shareholders Funds</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Other Long Term Liabilities</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Long Term Provisions</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total Non-Current Liabilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trade Payables</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Other Current Liabilities</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Total Current Liabilities</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital And Liabilities</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Tangible Assets</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Intangible Assets</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Fixed Assets</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Non-Current Investments</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Deferred Tax Assets [Net]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Long Term Loans And Advances</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Other Non-Current Assets</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Total Non-Current Assets</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Current Investments</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Trade Receivables</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Short Term Loans And Advances</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>OtherCurrentAssets</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Total Current Assets</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Expenditure In Foreign Currency</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Other Earnings</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Non-Current Investments Unquoted Book Value</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mar 24</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>20.59</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>20.59</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1081.33</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1081.33</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1101.92</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>17.94</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>3.02</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>20.96</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>5.1</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>14.8</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>19.89</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>1142.77</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>24.66</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>0.24</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>24.66</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>286.82</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>5.54</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>133.25</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>7.22</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>457.49</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>266.13</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>102.16</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>146.48</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>27.25</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>143.25</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>685.28</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>1142.77</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>106.64</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>263.41</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>0.43</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar 16</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.8</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.8</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>51.93</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>51.93</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>52.73</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>10.53</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>1.2</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>13.04</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>2.46</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>3.36</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>5.83</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>8.41</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>0.13</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>8.539999999999999</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>0.28</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>13.92</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>12.11</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>10.17</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>20.93</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>14.98</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>14.88</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>18.27</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>2.4</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>0.13</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>50.66</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>2.3</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>77.67</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>0.28</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar 17</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.8</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.8</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>98.31999999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>98.31999999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>101.26</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>2.21</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.29</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>3.3</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.68</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>12.61</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>14.73</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>119.29</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>6.19</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>0.41</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>6.6</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>0.28</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>0.38</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>21.18</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>10.17</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>28.44</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>65.27</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>9.85</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>14.67</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>0.12</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>90.84999999999999</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>119.29</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>1.28</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>104.78</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>0.28</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar 18</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>154.07</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>154.07</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>157.04</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>2.32</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.63</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>2.95</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>1.82</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>3.15</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>7.82</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>167.82</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>4.15</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>0.74</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>4.89</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>0.43</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>0.92</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>29.88</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>10.17</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>36.12</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>82.98999999999999</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>30.97</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>16.69</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>0.93</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>0.12</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>131.7</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>167.82</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>0.63</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>104.49</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>0.43</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mar 19</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>202.02</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>202.02</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>205.2</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>2.11</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>2.8</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>1.84</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>1.83</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>4.75</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>212.78</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>3.25</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>0.41</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>3.66</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>0.43</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>1.08</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>32.84</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>0.01</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>38.02</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>97.91</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>22.62</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>51.6</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>1.15</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>1.48</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>174.76</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>212.78</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>1.42</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>114.16</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>0.43</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mar 20</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>254.18</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>254.18</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>257.15</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>25.21</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.93</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>26.14</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>1.81</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>8.1</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>9.91</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>293.21</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>32.33</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>0.19</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>32.52</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>0.43</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>30.46</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>2.46</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>24.76</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>90.63</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>72.19</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>20.95</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>87.89</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>0.01</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>21.56</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>202.58</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>293.21</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>27.78</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>155.09</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>0.43</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mar 21</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>323.12</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>323.12</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>325.51</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>22.43</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>23.37</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>1.13</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>12.05</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>13.18</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>362.18</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>28.1</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>0.02</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>28.12</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>91.81999999999999</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>28.63</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>2.55</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>0.31</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>151.44</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>47.92</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>38.7</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>97.01000000000001</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>0.01</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>27.1</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>210.75</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>362.18</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>131.64</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>91.81999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mar 22</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>20.04</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>20.04</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>835.5700000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>835.5700000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>855.61</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>18.96</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>1.29</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>20.25</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>2.22</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>18.59</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>20.82</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>896.6799999999999</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>26.72</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>0.01</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>26.74</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>126.23</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>25.25</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>12.66</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>0.31</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>191.17</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>68</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>41.08</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>492.56</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>49.91</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>53.96</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>705.51</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>896.6799999999999</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>53.79</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>196.11</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>126.23</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mar 23</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>20.49</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>20.49</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>963.21</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>963.21</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>983.7</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>14.98</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>1.81</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>16.79</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>2.31</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>11.64</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>13.95</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>1014.44</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>21.14</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>0.01</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>21.15</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>246.02</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>19.08</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>50.78</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>28.43</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>365.45</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>145.12</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>50.66</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>363.21</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>56.66</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>33.34</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>648.99</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>1014.44</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>56.16</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>248.47</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>0.43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>